--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
   <si>
     <t>№</t>
   </si>
@@ -185,9 +185,6 @@
 id из предыдущего теста</t>
   </si>
   <si>
-    <t>passed</t>
-  </si>
-  <si>
     <t>Проверить название категории</t>
   </si>
   <si>
@@ -260,6 +257,16 @@
   </si>
   <si>
     <t>Удалить несуществующую категорию животных.</t>
+  </si>
+  <si>
+    <t>Обновить животноe. Использовать название уже существующего животного.</t>
+  </si>
+  <si>
+    <t>Удалить животное по несуществующему Id.</t>
+  </si>
+  <si>
+    <t>endpoint=api/pet/{id}
+name="Bob"</t>
   </si>
 </sst>
 </file>
@@ -623,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H58"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +645,7 @@
     <col min="7" max="7" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -658,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -676,7 +683,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -687,11 +694,8 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -702,11 +706,8 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -724,7 +725,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -735,11 +736,8 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -750,29 +748,26 @@
       <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -781,13 +776,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -805,7 +797,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -816,11 +808,8 @@
       <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -831,44 +820,38 @@
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -877,13 +860,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>6</v>
       </c>
@@ -901,7 +881,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -912,11 +892,8 @@
       <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -927,44 +904,38 @@
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -973,31 +944,28 @@
         <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1006,13 +974,10 @@
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>9</v>
       </c>
@@ -1030,7 +995,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1041,11 +1006,8 @@
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1054,31 +1016,28 @@
         <v>8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1087,13 +1046,10 @@
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>11</v>
       </c>
@@ -1111,7 +1067,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1122,11 +1078,8 @@
       <c r="G31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="288" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:7" ht="288" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1137,13 +1090,10 @@
       <c r="G32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>28</v>
@@ -1159,7 +1109,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1170,11 +1120,8 @@
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1185,29 +1132,26 @@
       <c r="G35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1216,145 +1160,142 @@
         <v>7</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>14</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>15</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G42" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="G43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
         <v>16</v>
       </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>8</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <v>16</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1363,186 +1304,235 @@
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>9</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>18</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>19</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="3" t="s">
+    </row>
+    <row r="55" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>20</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
-        <v>10</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="E55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>21</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="3" t="s">
+      <c r="E57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="5">
-        <v>11</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H58" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
+  <mergeCells count="84">
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
@@ -1551,70 +1541,26 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
